--- a/DMSNewVSale_2025-12-19_14-15.xlsx
+++ b/DMSNewVSale_2025-12-19_14-15.xlsx
@@ -141,6 +141,15 @@
   </si>
   <si>
     <t>31.0000</t>
+  </si>
+  <si>
+    <t>KLIMADYNON 30 TAB.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>210.0000</t>
   </si>
   <si>
     <t>MEDIPHA D3 DROP</t>
@@ -1262,7 +1271,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1289,13 +1298,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1306,7 +1315,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1322,7 +1331,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1332,11 +1341,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>27</v>
@@ -1348,14 +1357,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1372,7 +1381,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1388,7 +1397,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1405,7 +1414,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1421,7 +1430,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1431,14 +1440,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1447,14 +1456,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1464,14 +1473,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>67</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>27</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1487,7 +1496,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1504,7 +1513,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1520,7 +1529,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1537,7 +1546,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1559,18 +1568,18 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1579,31 +1588,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1612,14 +1621,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1629,14 +1638,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1645,28 +1654,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>15</v>
@@ -1678,14 +1687,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1702,7 +1711,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1711,7 +1720,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1728,14 +1737,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>15</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1744,14 +1753,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1761,14 +1770,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1777,14 +1786,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1794,14 +1803,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>15</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1850,7 +1859,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1893,11 +1902,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>15</v>
@@ -1909,14 +1918,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1926,11 +1935,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>15</v>
@@ -1942,14 +1951,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1959,51 +1968,84 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>15</v>
       </c>
     </row>
-    <row r="37" ht="26.25" customHeight="1">
-      <c r="N37" s="13">
-        <v>2151.1700000000001</v>
-      </c>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
-        <v>110</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
-        <v>111</v>
-      </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
         <v>112</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>41</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>29</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>102</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" ht="25.5" customHeight="1">
+      <c r="N38" s="13">
+        <v>2361.1700000000001</v>
+      </c>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>113</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>114</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>115</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2162,10 +2204,15 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
